--- a/TestData/PythonExcelDemo.xlsx
+++ b/TestData/PythonExcelDemo.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
   <si>
     <t xml:space="preserve">Email</t>
   </si>
@@ -28,6 +28,15 @@
     <t xml:space="preserve">Password</t>
   </si>
   <si>
+    <t xml:space="preserve">Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phone No</t>
+  </si>
+  <si>
     <t xml:space="preserve">TestCase1</t>
   </si>
   <si>
@@ -41,6 +50,15 @@
   </si>
   <si>
     <t xml:space="preserve">testingbuilder2@yopmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TestCase3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">autotestowner5@yopmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Auto Test Owner5</t>
   </si>
 </sst>
 </file>
@@ -137,13 +155,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E8" activeCellId="0" sqref="E8"/>
+      <selection pane="topLeft" activeCell="F11" activeCellId="0" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="0" t="s">
@@ -152,27 +170,56 @@
       <c r="C1" s="0" t="s">
         <v>1</v>
       </c>
+      <c r="D1" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>4</v>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>91</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>4324234232</v>
       </c>
     </row>
   </sheetData>
